--- a/SpreadsheetSerializer.Tests.Unit/DataSourceSingleSheet/Empty.xlsx
+++ b/SpreadsheetSerializer.Tests.Unit/DataSourceSingleSheet/Empty.xlsx
@@ -458,7 +458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1cf0f787-15a4-4839-8636-a15740fa0ab1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5ac7307b-b192-4cb9-ac3e-59e7d0720a95}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
